--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxim/Library/Mobile Documents/com~apple~CloudDocs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02B26D7B-FA45-2E4B-848D-32DF4452A2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727C27FC-DFE8-4764-8DB8-3A266489B91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{DAE4AC01-448E-4C48-AB9D-32D2001C0275}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DAE4AC01-448E-4C48-AB9D-32D2001C0275}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="26">
   <si>
     <t>Hans</t>
   </si>
@@ -184,12 +184,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -202,13 +196,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -545,117 +545,117 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN12" sqref="AN12"/>
+      <selection pane="topRight" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.375" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="5.5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="5.5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="9" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="4" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="4" t="s">
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="4" t="s">
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="4" t="s">
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="12"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="13"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -671,10 +671,10 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
@@ -689,7 +689,7 @@
       <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="N2" t="s">
@@ -707,7 +707,7 @@
       <c r="R2" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="T2" t="s">
@@ -725,7 +725,7 @@
       <c r="X2" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="Z2" t="s">
@@ -743,7 +743,7 @@
       <c r="AD2" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="AF2" t="s">
@@ -761,7 +761,7 @@
       <c r="AJ2" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AK2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="AL2" t="s">
@@ -779,12 +779,12 @@
       <c r="AP2" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="11" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3"/>
@@ -794,19 +794,19 @@
       <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="10"/>
+      <c r="M3" s="8"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="10"/>
+      <c r="S3" s="8"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -814,7 +814,7 @@
       <c r="X3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="10"/>
+      <c r="Y3" s="8"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
@@ -822,22 +822,22 @@
       <c r="AD3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE3" s="10"/>
+      <c r="AE3" s="8"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="10"/>
+      <c r="AK3" s="8"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
-      <c r="AQ3" s="10"/>
+      <c r="AQ3" s="8"/>
     </row>
-    <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3"/>
@@ -847,21 +847,23 @@
       <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="10"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="R4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="10"/>
+      <c r="S4" s="8"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -869,7 +871,7 @@
       <c r="X4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="10"/>
+      <c r="Y4" s="8"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -877,22 +879,22 @@
       <c r="AD4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE4" s="10"/>
+      <c r="AE4" s="8"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="10"/>
+      <c r="AK4" s="8"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
-      <c r="AQ4" s="10"/>
+      <c r="AQ4" s="8"/>
     </row>
-    <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="3"/>
@@ -902,7 +904,7 @@
       <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -910,15 +912,17 @@
       <c r="L5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="R5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="10"/>
+      <c r="S5" s="8"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -926,7 +930,7 @@
       <c r="X5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="8"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -934,22 +938,22 @@
       <c r="AD5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE5" s="10"/>
+      <c r="AE5" s="8"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
-      <c r="AK5" s="10"/>
+      <c r="AK5" s="8"/>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
-      <c r="AQ5" s="10"/>
+      <c r="AQ5" s="8"/>
     </row>
-    <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="3"/>
@@ -959,7 +963,7 @@
       <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -967,15 +971,17 @@
       <c r="L6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="R6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="10"/>
+      <c r="S6" s="8"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -983,7 +989,7 @@
       <c r="X6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="8"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
@@ -991,22 +997,22 @@
       <c r="AD6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE6" s="10"/>
+      <c r="AE6" s="8"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
-      <c r="AK6" s="10"/>
+      <c r="AK6" s="8"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
-      <c r="AQ6" s="10"/>
+      <c r="AQ6" s="8"/>
     </row>
-    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3"/>
@@ -1014,27 +1020,29 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="10"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="10"/>
+      <c r="S7" s="8"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="W7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="X7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="8"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
@@ -1042,22 +1050,22 @@
       <c r="AD7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE7" s="10"/>
+      <c r="AE7" s="8"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
-      <c r="AK7" s="10"/>
+      <c r="AK7" s="8"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
-      <c r="AQ7" s="10"/>
+      <c r="AQ7" s="8"/>
     </row>
-    <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3"/>
@@ -1065,13 +1073,13 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -1079,15 +1087,17 @@
       <c r="R8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="10"/>
+      <c r="S8" s="8"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="W8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="X8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y8" s="10"/>
+      <c r="Y8" s="8"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -1095,38 +1105,42 @@
       <c r="AD8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="10"/>
+      <c r="AE8" s="8"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
-      <c r="AK8" s="10"/>
+      <c r="AK8" s="8"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
-      <c r="AQ8" s="10"/>
+      <c r="AQ8" s="8"/>
     </row>
-    <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="L9" s="3"/>
-      <c r="M9" s="10"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1134,13 +1148,13 @@
       <c r="R9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="10"/>
+      <c r="S9" s="8"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="10"/>
+      <c r="Y9" s="8"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -1148,38 +1162,42 @@
       <c r="AD9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE9" s="10"/>
+      <c r="AE9" s="8"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
-      <c r="AK9" s="10"/>
+      <c r="AK9" s="8"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
-      <c r="AQ9" s="10"/>
+      <c r="AQ9" s="8"/>
     </row>
-    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="L10" s="3"/>
-      <c r="M10" s="10"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1187,13 +1205,13 @@
       <c r="R10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="10"/>
+      <c r="S10" s="8"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="10"/>
+      <c r="Y10" s="8"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -1201,22 +1219,22 @@
       <c r="AD10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE10" s="10"/>
+      <c r="AE10" s="8"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
-      <c r="AK10" s="10"/>
+      <c r="AK10" s="8"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
-      <c r="AQ10" s="10"/>
+      <c r="AQ10" s="8"/>
     </row>
-    <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3"/>
@@ -1224,13 +1242,13 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="10"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1238,34 +1256,36 @@
       <c r="R11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="10"/>
+      <c r="S11" s="8"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="W11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="X11" s="3"/>
-      <c r="Y11" s="10"/>
+      <c r="Y11" s="8"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="10"/>
+      <c r="AE11" s="8"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
-      <c r="AK11" s="10"/>
+      <c r="AK11" s="8"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
       <c r="AP11" s="3"/>
-      <c r="AQ11" s="10"/>
+      <c r="AQ11" s="8"/>
     </row>
-    <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="3"/>
@@ -1273,46 +1293,48 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="10"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="10"/>
+      <c r="S12" s="8"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="W12" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="X12" s="3"/>
-      <c r="Y12" s="10"/>
+      <c r="Y12" s="8"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="10"/>
+      <c r="AE12" s="8"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
-      <c r="AK12" s="10"/>
+      <c r="AK12" s="8"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="3"/>
-      <c r="AQ12" s="10"/>
+      <c r="AQ12" s="8"/>
     </row>
-    <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="3"/>
@@ -1320,46 +1342,46 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="10"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="10"/>
+      <c r="S13" s="8"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="10"/>
+      <c r="Y13" s="8"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="10"/>
+      <c r="AE13" s="8"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
-      <c r="AK13" s="10"/>
+      <c r="AK13" s="8"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
       <c r="AP13" s="3"/>
-      <c r="AQ13" s="10"/>
+      <c r="AQ13" s="8"/>
     </row>
-    <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="3"/>
@@ -1367,53 +1389,53 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="10"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="10"/>
+      <c r="S14" s="8"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="10"/>
+      <c r="Y14" s="8"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
-      <c r="AE14" s="10"/>
+      <c r="AE14" s="8"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
-      <c r="AK14" s="10"/>
+      <c r="AK14" s="8"/>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
-      <c r="AQ14" s="10"/>
+      <c r="AQ14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AL1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A8:Q9 A1:XFD7 S8:XFD9 B9:AQ14">

--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CB9AF7-BCED-4614-8E30-55D53FB7E3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,115 +25,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">Montag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dienstag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mittwoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donnerstag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freitag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samstag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonntag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maxim H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maxim S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:00 - 9:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:00 - 10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00 - 11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:00 - 12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:00 - 13:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:00 - 14:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00 - 15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:00 - 16:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:00 - 17:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:00 - 18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:00 - 19:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:00 - 20:00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="26">
+  <si>
+    <t>Montag</t>
+  </si>
+  <si>
+    <t>Dienstag</t>
+  </si>
+  <si>
+    <t>Mittwoch</t>
+  </si>
+  <si>
+    <t>Donnerstag</t>
+  </si>
+  <si>
+    <t>Freitag</t>
+  </si>
+  <si>
+    <t>Samstag</t>
+  </si>
+  <si>
+    <t>Sonntag</t>
+  </si>
+  <si>
+    <t>Hans</t>
+  </si>
+  <si>
+    <t>Haris</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Maxim H.</t>
+  </si>
+  <si>
+    <t>Maxim S.</t>
+  </si>
+  <si>
+    <t>Merlin</t>
+  </si>
+  <si>
+    <t>8:00 - 9:00</t>
+  </si>
+  <si>
+    <t>Busy</t>
+  </si>
+  <si>
+    <t>9:00 - 10:00</t>
+  </si>
+  <si>
+    <t>10:00 - 11:00</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00</t>
+  </si>
+  <si>
+    <t>12:00 - 13:00</t>
+  </si>
+  <si>
+    <t>13:00 - 14:00</t>
+  </si>
+  <si>
+    <t>14:00 - 15:00</t>
+  </si>
+  <si>
+    <t>15:00 - 16:00</t>
+  </si>
+  <si>
+    <t>16:00 - 17:00</t>
+  </si>
+  <si>
+    <t>17:00 - 18:00</t>
+  </si>
+  <si>
+    <t>18:00 - 19:00</t>
+  </si>
+  <si>
+    <t>19:00 - 20:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -146,129 +133,81 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -292,6 +231,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -350,73 +290,380 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O6" activeCellId="0" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.640625" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="5.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="5.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="5.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="5.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="5.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="5.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="5.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="5.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="6.5"/>
+    <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.35546875" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" customWidth="1"/>
+    <col min="9" max="9" width="5.35546875" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" customWidth="1"/>
+    <col min="15" max="15" width="5.35546875" customWidth="1"/>
+    <col min="16" max="16" width="5.5" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="6.5" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" customWidth="1"/>
+    <col min="21" max="21" width="5.35546875" customWidth="1"/>
+    <col min="22" max="22" width="5.5" customWidth="1"/>
+    <col min="23" max="23" width="9" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" customWidth="1"/>
+    <col min="25" max="25" width="6.5" customWidth="1"/>
+    <col min="26" max="26" width="5.140625" customWidth="1"/>
+    <col min="27" max="27" width="5.35546875" customWidth="1"/>
+    <col min="28" max="28" width="5.5" customWidth="1"/>
+    <col min="29" max="29" width="9" customWidth="1"/>
+    <col min="30" max="30" width="8.85546875" customWidth="1"/>
+    <col min="31" max="31" width="6.5" customWidth="1"/>
+    <col min="32" max="32" width="5.140625" customWidth="1"/>
+    <col min="33" max="33" width="5.35546875" customWidth="1"/>
+    <col min="34" max="34" width="5.5" customWidth="1"/>
+    <col min="35" max="35" width="9" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" customWidth="1"/>
+    <col min="37" max="37" width="6.5" customWidth="1"/>
+    <col min="38" max="38" width="5.140625" customWidth="1"/>
+    <col min="39" max="39" width="5.35546875" customWidth="1"/>
+    <col min="40" max="40" width="5.5" customWidth="1"/>
+    <col min="41" max="41" width="9" customWidth="1"/>
+    <col min="42" max="42" width="8.85546875" customWidth="1"/>
+    <col min="43" max="43" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -425,70 +672,70 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5" t="s">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5" t="s">
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5" t="s">
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -497,119 +744,121 @@
       <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" t="s">
         <v>11</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="U2" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="W2" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="X2" t="s">
         <v>11</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="Z2" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="AA2" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="0" t="s">
+      <c r="AB2" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="0" t="s">
+      <c r="AC2" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="0" t="s">
+      <c r="AD2" t="s">
         <v>11</v>
       </c>
       <c r="AE2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="0" t="s">
+      <c r="AF2" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="0" t="s">
+      <c r="AG2" t="s">
         <v>8</v>
       </c>
-      <c r="AH2" s="0" t="s">
+      <c r="AH2" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="0" t="s">
+      <c r="AI2" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="0" t="s">
+      <c r="AJ2" t="s">
         <v>11</v>
       </c>
       <c r="AK2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AL2" s="0" t="s">
+      <c r="AL2" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="0" t="s">
+      <c r="AM2" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="0" t="s">
+      <c r="AN2" t="s">
         <v>9</v>
       </c>
-      <c r="AO2" s="0" t="s">
+      <c r="AO2" t="s">
         <v>10</v>
       </c>
-      <c r="AP2" s="0" t="s">
+      <c r="AP2" t="s">
         <v>11</v>
       </c>
       <c r="AQ2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
         <v>14</v>
@@ -617,7 +866,9 @@
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="12"/>
@@ -637,7 +888,9 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
+      <c r="AB3" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9" t="s">
         <v>14</v>
@@ -656,13 +909,15 @@
       <c r="AP3" s="9"/>
       <c r="AQ3" s="12"/>
     </row>
-    <row r="4" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
         <v>14</v>
@@ -670,7 +925,9 @@
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
@@ -678,7 +935,9 @@
       <c r="O4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="9"/>
+      <c r="P4" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="Q4" s="9" t="s">
         <v>14</v>
       </c>
@@ -696,7 +955,9 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
+      <c r="AB4" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9" t="s">
         <v>14</v>
@@ -715,13 +976,15 @@
       <c r="AP4" s="9"/>
       <c r="AQ4" s="12"/>
     </row>
-    <row r="5" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
         <v>14</v>
@@ -729,7 +992,9 @@
       <c r="G5" s="12"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9" t="s">
         <v>14</v>
@@ -739,7 +1004,9 @@
       <c r="O5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="9"/>
+      <c r="P5" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="Q5" s="9" t="s">
         <v>14</v>
       </c>
@@ -757,7 +1024,9 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
+      <c r="AB5" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9" t="s">
         <v>14</v>
@@ -776,13 +1045,15 @@
       <c r="AP5" s="9"/>
       <c r="AQ5" s="12"/>
     </row>
-    <row r="6" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
         <v>14</v>
@@ -790,7 +1061,9 @@
       <c r="G6" s="12"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9" t="s">
         <v>14</v>
@@ -800,7 +1073,9 @@
       <c r="O6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="9"/>
+      <c r="P6" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="Q6" s="9" t="s">
         <v>14</v>
       </c>
@@ -818,7 +1093,9 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
+      <c r="AB6" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9" t="s">
         <v>14</v>
@@ -837,19 +1114,23 @@
       <c r="AP6" s="9"/>
       <c r="AQ6" s="12"/>
     </row>
-    <row r="7" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="12"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="12"/>
@@ -871,7 +1152,9 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
+      <c r="AB7" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9" t="s">
         <v>14</v>
@@ -890,8 +1173,8 @@
       <c r="AP7" s="9"/>
       <c r="AQ7" s="12"/>
     </row>
-    <row r="8" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="9"/>
@@ -945,8 +1228,8 @@
       <c r="AP8" s="9"/>
       <c r="AQ8" s="12"/>
     </row>
-    <row r="9" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="9"/>
@@ -1002,8 +1285,8 @@
       <c r="AP9" s="9"/>
       <c r="AQ9" s="12"/>
     </row>
-    <row r="10" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="9"/>
@@ -1059,8 +1342,8 @@
       <c r="AP10" s="9"/>
       <c r="AQ10" s="12"/>
     </row>
-    <row r="11" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="9"/>
@@ -1110,8 +1393,8 @@
       <c r="AP11" s="9"/>
       <c r="AQ11" s="12"/>
     </row>
-    <row r="12" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="9"/>
@@ -1159,8 +1442,8 @@
       <c r="AP12" s="9"/>
       <c r="AQ12" s="12"/>
     </row>
-    <row r="13" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="9"/>
@@ -1206,8 +1489,8 @@
       <c r="AP13" s="9"/>
       <c r="AQ13" s="12"/>
     </row>
-    <row r="14" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="9"/>
@@ -1255,30 +1538,25 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AL1:AQ1"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:XFD1048576 A8:Q9 S8:XFD9 B9:AQ14 A1:XFD7">
-    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Busy" dxfId="0">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Busy">
       <formula>NOT(ISERROR(SEARCH("Busy",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Busy" dxfId="1">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Busy">
       <formula>NOT(ISERROR(SEARCH("Busy",R8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxim/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuhause\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0676BC8C-CE0C-E149-93CC-33A1AAA9E891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E635D16-072E-402E-BED2-9CB20A792A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23660" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="26">
   <si>
     <t>Montag</t>
   </si>
@@ -198,7 +198,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -602,58 +602,58 @@
   <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N9" sqref="N9"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
     <col min="4" max="4" width="5.5" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.125" customWidth="1"/>
+    <col min="9" max="9" width="5.375" customWidth="1"/>
     <col min="10" max="10" width="5.5" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="8.875" customWidth="1"/>
     <col min="13" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" customWidth="1"/>
+    <col min="14" max="14" width="5.125" customWidth="1"/>
+    <col min="15" max="15" width="5.375" customWidth="1"/>
     <col min="16" max="16" width="5.5" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" customWidth="1"/>
+    <col min="18" max="18" width="8.875" customWidth="1"/>
     <col min="19" max="19" width="6.5" customWidth="1"/>
-    <col min="20" max="20" width="5.1640625" customWidth="1"/>
-    <col min="21" max="21" width="5.33203125" customWidth="1"/>
+    <col min="20" max="20" width="5.125" customWidth="1"/>
+    <col min="21" max="21" width="5.375" customWidth="1"/>
     <col min="22" max="22" width="5.5" customWidth="1"/>
     <col min="23" max="23" width="9" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
     <col min="25" max="25" width="6.5" customWidth="1"/>
-    <col min="26" max="26" width="5.1640625" customWidth="1"/>
-    <col min="27" max="27" width="5.33203125" customWidth="1"/>
+    <col min="26" max="26" width="5.125" customWidth="1"/>
+    <col min="27" max="27" width="5.375" customWidth="1"/>
     <col min="28" max="28" width="5.5" customWidth="1"/>
     <col min="29" max="29" width="9" customWidth="1"/>
-    <col min="30" max="30" width="8.83203125" customWidth="1"/>
+    <col min="30" max="30" width="8.875" customWidth="1"/>
     <col min="31" max="31" width="6.5" customWidth="1"/>
-    <col min="32" max="32" width="5.1640625" customWidth="1"/>
-    <col min="33" max="33" width="5.33203125" customWidth="1"/>
+    <col min="32" max="32" width="5.125" customWidth="1"/>
+    <col min="33" max="33" width="5.375" customWidth="1"/>
     <col min="34" max="34" width="5.5" customWidth="1"/>
     <col min="35" max="35" width="9" customWidth="1"/>
-    <col min="36" max="36" width="8.83203125" customWidth="1"/>
+    <col min="36" max="36" width="8.875" customWidth="1"/>
     <col min="37" max="37" width="6.5" customWidth="1"/>
-    <col min="38" max="38" width="5.1640625" customWidth="1"/>
-    <col min="39" max="39" width="5.33203125" customWidth="1"/>
+    <col min="38" max="38" width="5.125" customWidth="1"/>
+    <col min="39" max="39" width="5.375" customWidth="1"/>
     <col min="40" max="40" width="5.5" customWidth="1"/>
     <col min="41" max="41" width="9" customWidth="1"/>
-    <col min="42" max="42" width="8.83203125" customWidth="1"/>
+    <col min="42" max="42" width="8.875" customWidth="1"/>
     <col min="43" max="43" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -712,7 +712,7 @@
       <c r="AP1" s="7"/>
       <c r="AQ1" s="7"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>7</v>
@@ -841,7 +841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="AP3" s="3"/>
       <c r="AQ3" s="5"/>
     </row>
-    <row r="4" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -937,7 +937,9 @@
       <c r="R4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="5"/>
+      <c r="S4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -961,7 +963,9 @@
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="5"/>
+      <c r="AK4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
@@ -969,7 +973,7 @@
       <c r="AP4" s="3"/>
       <c r="AQ4" s="5"/>
     </row>
-    <row r="5" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1008,7 +1012,9 @@
       <c r="R5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="5"/>
+      <c r="S5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -1032,7 +1038,9 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
-      <c r="AK5" s="5"/>
+      <c r="AK5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
@@ -1040,7 +1048,7 @@
       <c r="AP5" s="3"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1079,7 +1087,9 @@
       <c r="R6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="5"/>
+      <c r="S6" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1103,7 +1113,9 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
-      <c r="AK6" s="5"/>
+      <c r="AK6" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
@@ -1111,7 +1123,7 @@
       <c r="AP6" s="3"/>
       <c r="AQ6" s="5"/>
     </row>
-    <row r="7" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1136,7 +1148,9 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="5"/>
+      <c r="S7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -1146,7 +1160,9 @@
       <c r="X7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="5"/>
+      <c r="Y7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
@@ -1162,7 +1178,9 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
-      <c r="AK7" s="5"/>
+      <c r="AK7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
@@ -1170,7 +1188,7 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="5"/>
     </row>
-    <row r="8" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1193,7 +1211,9 @@
       <c r="R8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S8" s="5"/>
+      <c r="S8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1203,7 +1223,9 @@
       <c r="X8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="5"/>
+      <c r="Y8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -1217,7 +1239,9 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
-      <c r="AK8" s="5"/>
+      <c r="AK8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
@@ -1225,7 +1249,7 @@
       <c r="AP8" s="3"/>
       <c r="AQ8" s="5"/>
     </row>
-    <row r="9" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1254,13 +1278,17 @@
       <c r="R9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="5"/>
+      <c r="S9" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="5"/>
+      <c r="Y9" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -1274,7 +1302,9 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
-      <c r="AK9" s="5"/>
+      <c r="AK9" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
@@ -1282,7 +1312,7 @@
       <c r="AP9" s="3"/>
       <c r="AQ9" s="5"/>
     </row>
-    <row r="10" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1311,13 +1341,17 @@
       <c r="R10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="5"/>
+      <c r="S10" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="5"/>
+      <c r="Y10" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -1331,7 +1365,9 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
-      <c r="AK10" s="5"/>
+      <c r="AK10" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
@@ -1339,7 +1375,7 @@
       <c r="AP10" s="3"/>
       <c r="AQ10" s="5"/>
     </row>
-    <row r="11" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1362,7 +1398,9 @@
       <c r="R11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S11" s="5"/>
+      <c r="S11" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
@@ -1370,7 +1408,9 @@
         <v>14</v>
       </c>
       <c r="X11" s="3"/>
-      <c r="Y11" s="5"/>
+      <c r="Y11" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
@@ -1382,7 +1422,9 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
-      <c r="AK11" s="5"/>
+      <c r="AK11" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
@@ -1390,7 +1432,7 @@
       <c r="AP11" s="3"/>
       <c r="AQ11" s="5"/>
     </row>
-    <row r="12" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1411,7 +1453,9 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1419,7 +1463,9 @@
         <v>14</v>
       </c>
       <c r="X12" s="3"/>
-      <c r="Y12" s="5"/>
+      <c r="Y12" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
@@ -1431,7 +1477,9 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
-      <c r="AK12" s="5"/>
+      <c r="AK12" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
@@ -1439,7 +1487,7 @@
       <c r="AP12" s="3"/>
       <c r="AQ12" s="5"/>
     </row>
-    <row r="13" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1460,13 +1508,17 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="5"/>
+      <c r="S13" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="5"/>
+      <c r="Y13" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
@@ -1478,7 +1530,9 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
-      <c r="AK13" s="5"/>
+      <c r="AK13" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
@@ -1486,7 +1540,7 @@
       <c r="AP13" s="3"/>
       <c r="AQ13" s="5"/>
     </row>
-    <row r="14" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1507,13 +1561,17 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="5"/>
+      <c r="S14" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="5"/>
+      <c r="Y14" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
@@ -1543,13 +1601,13 @@
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="Z1:AE1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A10:XFD1048576 A8:Q9 S8:XFD9 B9:AQ14 A1:XFD7">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Busy">
+  <conditionalFormatting sqref="A10:XFD1048576 A8:Q9 A1:XFD7 S8:XFD9 B9:AQ14">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Busy">
       <formula>NOT(ISERROR(SEARCH("Busy",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Busy">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Busy">
       <formula>NOT(ISERROR(SEARCH("Busy",R8)))</formula>
     </cfRule>
   </conditionalFormatting>
